--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 5/05-05-the-unique-function.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 5/05-05-the-unique-function.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Course Files/Section 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{F136F0C1-6AE2-4CEC-9DC0-12E25DA1BF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A647BD3-6B44-467A-BEBD-7EEC80D0BCE9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D1E1E2-DD58-4BE1-8B58-39C21EF94D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D77D9FF2-12C2-4195-A208-879813459C64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D77D9FF2-12C2-4195-A208-879813459C64}"/>
   </bookViews>
   <sheets>
     <sheet name="The UNIQUE Function" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'The UNIQUE Function'!$B$4:$B$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'The UNIQUE Function'!$B$4:$B$30</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'The UNIQUE Function'!$F$11</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -82,7 +104,19 @@
     <t>Extracting Unique Values using the UNIQUE Function</t>
   </si>
   <si>
-    <t>Matthew</t>
+    <t>Punk</t>
+  </si>
+  <si>
+    <t>Dum</t>
+  </si>
+  <si>
+    <t>North Korean</t>
+  </si>
+  <si>
+    <t>only appear once</t>
+  </si>
+  <si>
+    <t>distinct data</t>
   </si>
 </sst>
 </file>
@@ -111,7 +145,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +158,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,18 +178,7 @@
         <color theme="4" tint="0.39997558519241921"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -158,9 +187,7 @@
       <right style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -168,19 +195,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -196,6 +259,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91279F2E-B19A-4290-AEB4-9F25434A5ACE}" name="Sales_Reps" displayName="Sales_Reps" ref="A4:D30" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="2">
+  <autoFilter ref="A4:D30" xr:uid="{91279F2E-B19A-4290-AEB4-9F25434A5ACE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6B3BDAE1-8C6E-4D7B-A4AA-FF8A358BF064}" name="Date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F10D0953-E024-4332-8C63-504226F2E071}" name="Sales Rep"/>
+    <tableColumn id="3" xr3:uid="{74C563EB-4AC0-4967-9383-CE3956F3ABE4}" name="Region"/>
+    <tableColumn id="4" xr3:uid="{9B956B8A-0251-44A1-9D12-D4A890E490C3}" name="Sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AEB1D8-2594-4508-B452-06704199F5C9}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -518,6 +594,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
@@ -548,6 +629,12 @@
       <c r="D5">
         <v>8199</v>
       </c>
+      <c r="G5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -562,6 +649,18 @@
       <c r="D6">
         <v>6879</v>
       </c>
+      <c r="F6" t="str" cm="1">
+        <f t="array" ref="F6:F12" xml:space="preserve"> _xlfn.UNIQUE(B5:B30)</f>
+        <v>Ben</v>
+      </c>
+      <c r="G6" t="str" cm="1">
+        <f t="array" ref="G6:G12">_xlfn.UNIQUE(Sales_Reps[Sales Rep])</f>
+        <v>Ben</v>
+      </c>
+      <c r="H6" t="str" cm="1">
+        <f t="array" ref="H6:H7">_xlfn.UNIQUE(Sales_Reps[Sales Rep],FALSE,TRUE)</f>
+        <v>Punk</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -576,6 +675,15 @@
       <c r="D7">
         <v>8562</v>
       </c>
+      <c r="F7" t="str">
+        <v>Adam</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Adam</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Dum</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -590,6 +698,12 @@
       <c r="D8">
         <v>9715</v>
       </c>
+      <c r="F8" t="str">
+        <v>Deb</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Deb</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -604,6 +718,12 @@
       <c r="D9">
         <v>6967</v>
       </c>
+      <c r="F9" t="str">
+        <v>Susie</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Susie</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -618,6 +738,12 @@
       <c r="D10">
         <v>9624</v>
       </c>
+      <c r="F10" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Tom</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -632,6 +758,12 @@
       <c r="D11">
         <v>7591</v>
       </c>
+      <c r="F11" t="str">
+        <v>Punk</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Punk</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -646,6 +778,12 @@
       <c r="D12">
         <v>9454</v>
       </c>
+      <c r="F12" t="str">
+        <v>Dum</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Dum</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -913,6 +1051,18 @@
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>8787</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="I30" s="3"/>
     </row>
@@ -922,5 +1072,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>